--- a/data/clean_data.xlsx
+++ b/data/clean_data.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11028"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFBB393-0984-074A-9C34-FB4280BA1CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C791303A-BEA2-4440-86A3-F476B29F254A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-3100" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="clean_data" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="10-year span" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="46">
   <si>
     <t xml:space="preserve">2022 </t>
   </si>
@@ -580,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4449,11 +4450,1324 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC904525-BBAF-9E4A-8528-46C4FF850211}">
+  <dimension ref="A1:K37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="4">
+        <v>28.4</v>
+      </c>
+      <c r="C2" s="4">
+        <v>31.2</v>
+      </c>
+      <c r="D2" s="5">
+        <v>29</v>
+      </c>
+      <c r="E2" s="4">
+        <v>26.3</v>
+      </c>
+      <c r="F2" s="4">
+        <v>25.4</v>
+      </c>
+      <c r="G2" s="4">
+        <v>25.1</v>
+      </c>
+      <c r="H2" s="4">
+        <v>25.3</v>
+      </c>
+      <c r="I2" s="4">
+        <v>24.6</v>
+      </c>
+      <c r="J2" s="5">
+        <v>26</v>
+      </c>
+      <c r="K2" s="4">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="4">
+        <v>25.4</v>
+      </c>
+      <c r="C3" s="4">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="D3" s="4">
+        <v>23.3</v>
+      </c>
+      <c r="E3" s="4">
+        <v>26.9</v>
+      </c>
+      <c r="F3" s="4">
+        <v>21.3</v>
+      </c>
+      <c r="G3" s="4">
+        <v>21.5</v>
+      </c>
+      <c r="H3" s="4">
+        <v>22.1</v>
+      </c>
+      <c r="I3" s="4">
+        <v>21.3</v>
+      </c>
+      <c r="J3" s="5">
+        <v>24</v>
+      </c>
+      <c r="K3" s="4">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="4">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="C4" s="4">
+        <v>21.6</v>
+      </c>
+      <c r="D4" s="4">
+        <v>22.6</v>
+      </c>
+      <c r="E4" s="4">
+        <v>20.2</v>
+      </c>
+      <c r="F4" s="4">
+        <v>21.1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>22.6</v>
+      </c>
+      <c r="H4" s="4">
+        <v>23.2</v>
+      </c>
+      <c r="I4" s="4">
+        <v>21.4</v>
+      </c>
+      <c r="J4" s="4">
+        <v>21.9</v>
+      </c>
+      <c r="K4" s="4">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="4">
+        <v>25.1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>28.4</v>
+      </c>
+      <c r="D5" s="4">
+        <v>27.3</v>
+      </c>
+      <c r="E5" s="4">
+        <v>27.3</v>
+      </c>
+      <c r="F5" s="4">
+        <v>25.7</v>
+      </c>
+      <c r="G5" s="4">
+        <v>23.7</v>
+      </c>
+      <c r="H5" s="4">
+        <v>24.7</v>
+      </c>
+      <c r="I5" s="5">
+        <v>24</v>
+      </c>
+      <c r="J5" s="4">
+        <v>27.8</v>
+      </c>
+      <c r="K5" s="4">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="4">
+        <v>28.6</v>
+      </c>
+      <c r="C6" s="4">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="D6" s="4">
+        <v>29.4</v>
+      </c>
+      <c r="E6" s="4">
+        <v>26.5</v>
+      </c>
+      <c r="F6" s="4">
+        <v>25.4</v>
+      </c>
+      <c r="G6" s="4">
+        <v>24.8</v>
+      </c>
+      <c r="H6" s="5">
+        <v>25</v>
+      </c>
+      <c r="I6" s="5">
+        <v>26</v>
+      </c>
+      <c r="J6" s="4">
+        <v>27.5</v>
+      </c>
+      <c r="K6" s="4">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="5">
+        <v>30</v>
+      </c>
+      <c r="C7" s="4">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="D7" s="4">
+        <v>30.3</v>
+      </c>
+      <c r="E7" s="4">
+        <v>26.7</v>
+      </c>
+      <c r="F7" s="4">
+        <v>26.3</v>
+      </c>
+      <c r="G7" s="4">
+        <v>26.1</v>
+      </c>
+      <c r="H7" s="4">
+        <v>26.1</v>
+      </c>
+      <c r="I7" s="5">
+        <v>25</v>
+      </c>
+      <c r="J7" s="4">
+        <v>25.9</v>
+      </c>
+      <c r="K7" s="4">
+        <v>26.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="4">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="C8" s="4">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="D8" s="4">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="E8" s="4">
+        <v>29.8</v>
+      </c>
+      <c r="F8" s="4">
+        <v>29.7</v>
+      </c>
+      <c r="G8" s="4">
+        <v>28.5</v>
+      </c>
+      <c r="H8" s="4">
+        <v>29.1</v>
+      </c>
+      <c r="I8" s="4">
+        <v>28.6</v>
+      </c>
+      <c r="J8" s="4">
+        <v>29.9</v>
+      </c>
+      <c r="K8" s="4">
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="4">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="C9" s="4">
+        <v>42.4</v>
+      </c>
+      <c r="D9" s="4">
+        <v>37.6</v>
+      </c>
+      <c r="E9" s="4">
+        <v>40.9</v>
+      </c>
+      <c r="F9" s="4">
+        <v>38.4</v>
+      </c>
+      <c r="G9" s="4">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="H9" s="4">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="I9" s="4">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="J9" s="4">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="K9" s="4">
+        <v>38.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="4">
+        <v>24.4</v>
+      </c>
+      <c r="C10" s="4">
+        <v>29.6</v>
+      </c>
+      <c r="D10" s="4">
+        <v>30.8</v>
+      </c>
+      <c r="E10" s="4">
+        <v>28.6</v>
+      </c>
+      <c r="F10" s="5">
+        <v>31</v>
+      </c>
+      <c r="G10" s="4">
+        <v>31.1</v>
+      </c>
+      <c r="H10" s="4">
+        <v>31.5</v>
+      </c>
+      <c r="I10" s="4">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="J10" s="4">
+        <v>31.6</v>
+      </c>
+      <c r="K10" s="4">
+        <v>30.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="5">
+        <v>30</v>
+      </c>
+      <c r="C11" s="4">
+        <v>33.1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>31.9</v>
+      </c>
+      <c r="E11" s="5">
+        <v>33</v>
+      </c>
+      <c r="F11" s="4">
+        <v>28.2</v>
+      </c>
+      <c r="G11" s="4">
+        <v>30.5</v>
+      </c>
+      <c r="H11" s="4">
+        <v>29.2</v>
+      </c>
+      <c r="I11" s="4">
+        <v>29.3</v>
+      </c>
+      <c r="J11" s="5">
+        <v>33</v>
+      </c>
+      <c r="K11" s="4">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="4">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="C12" s="4">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="D12" s="4">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="E12" s="4">
+        <v>30.4</v>
+      </c>
+      <c r="F12" s="4">
+        <v>31.8</v>
+      </c>
+      <c r="G12" s="5">
+        <v>27</v>
+      </c>
+      <c r="H12" s="4">
+        <v>29.1</v>
+      </c>
+      <c r="I12" s="4">
+        <v>30.5</v>
+      </c>
+      <c r="J12" s="4">
+        <v>32.4</v>
+      </c>
+      <c r="K12" s="4">
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="4">
+        <v>32.6</v>
+      </c>
+      <c r="C13" s="4">
+        <v>33.1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>31.3</v>
+      </c>
+      <c r="E13" s="4">
+        <v>28.1</v>
+      </c>
+      <c r="F13" s="5">
+        <v>28</v>
+      </c>
+      <c r="G13" s="4">
+        <v>27.2</v>
+      </c>
+      <c r="H13" s="4">
+        <v>27.6</v>
+      </c>
+      <c r="I13" s="4">
+        <v>26.1</v>
+      </c>
+      <c r="J13" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="K13" s="4">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="4">
+        <v>24.7</v>
+      </c>
+      <c r="C14" s="4">
+        <v>27.9</v>
+      </c>
+      <c r="D14" s="5">
+        <v>26</v>
+      </c>
+      <c r="E14" s="4">
+        <v>23.1</v>
+      </c>
+      <c r="F14" s="4">
+        <v>21.6</v>
+      </c>
+      <c r="G14" s="4">
+        <v>22.2</v>
+      </c>
+      <c r="H14" s="4">
+        <v>21.9</v>
+      </c>
+      <c r="I14" s="5">
+        <v>21</v>
+      </c>
+      <c r="J14" s="4">
+        <v>22.5</v>
+      </c>
+      <c r="K14" s="4">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="4">
+        <v>17.5</v>
+      </c>
+      <c r="C15" s="4">
+        <v>22.5</v>
+      </c>
+      <c r="D15" s="4">
+        <v>14.1</v>
+      </c>
+      <c r="E15" s="4">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="F15" s="4">
+        <v>12.2</v>
+      </c>
+      <c r="G15" s="4">
+        <v>11.2</v>
+      </c>
+      <c r="H15" s="5">
+        <v>13</v>
+      </c>
+      <c r="I15" s="4">
+        <v>12.3</v>
+      </c>
+      <c r="J15" s="4">
+        <v>14.4</v>
+      </c>
+      <c r="K15" s="4">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="4">
+        <v>12.2</v>
+      </c>
+      <c r="C16" s="4">
+        <v>14.2</v>
+      </c>
+      <c r="D16" s="4">
+        <v>15.4</v>
+      </c>
+      <c r="E16" s="4">
+        <v>12.9</v>
+      </c>
+      <c r="F16" s="5">
+        <v>13</v>
+      </c>
+      <c r="G16" s="4">
+        <v>15.7</v>
+      </c>
+      <c r="H16" s="4">
+        <v>16.8</v>
+      </c>
+      <c r="I16" s="4">
+        <v>13.1</v>
+      </c>
+      <c r="J16" s="4">
+        <v>14.3</v>
+      </c>
+      <c r="K16" s="4">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="5">
+        <v>19</v>
+      </c>
+      <c r="C17" s="4">
+        <v>22.5</v>
+      </c>
+      <c r="D17" s="4">
+        <v>20.8</v>
+      </c>
+      <c r="E17" s="4">
+        <v>20.5</v>
+      </c>
+      <c r="F17" s="4">
+        <v>22.3</v>
+      </c>
+      <c r="G17" s="4">
+        <v>15.5</v>
+      </c>
+      <c r="H17" s="5">
+        <v>18</v>
+      </c>
+      <c r="I17" s="4">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="J17" s="4">
+        <v>21.3</v>
+      </c>
+      <c r="K17" s="4">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="4">
+        <v>23.4</v>
+      </c>
+      <c r="C18" s="4">
+        <v>24.8</v>
+      </c>
+      <c r="D18" s="4">
+        <v>25.3</v>
+      </c>
+      <c r="E18" s="4">
+        <v>22.9</v>
+      </c>
+      <c r="F18" s="4">
+        <v>19.7</v>
+      </c>
+      <c r="G18" s="4">
+        <v>22.7</v>
+      </c>
+      <c r="H18" s="4">
+        <v>21.3</v>
+      </c>
+      <c r="I18" s="5">
+        <v>22</v>
+      </c>
+      <c r="J18" s="4">
+        <v>23.3</v>
+      </c>
+      <c r="K18" s="4">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="4">
+        <v>27.7</v>
+      </c>
+      <c r="C19" s="4">
+        <v>31.4</v>
+      </c>
+      <c r="D19" s="4">
+        <v>29.5</v>
+      </c>
+      <c r="E19" s="4">
+        <v>25.6</v>
+      </c>
+      <c r="F19" s="4">
+        <v>24.8</v>
+      </c>
+      <c r="G19" s="4">
+        <v>25.1</v>
+      </c>
+      <c r="H19" s="4">
+        <v>24.7</v>
+      </c>
+      <c r="I19" s="4">
+        <v>24.1</v>
+      </c>
+      <c r="J19" s="4">
+        <v>25.2</v>
+      </c>
+      <c r="K19" s="4">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="4">
+        <v>15.3</v>
+      </c>
+      <c r="C20" s="4">
+        <v>16.2</v>
+      </c>
+      <c r="D20" s="4">
+        <v>15.6</v>
+      </c>
+      <c r="E20" s="4">
+        <v>13.9</v>
+      </c>
+      <c r="F20" s="4">
+        <v>14.2</v>
+      </c>
+      <c r="G20" s="4">
+        <v>13.9</v>
+      </c>
+      <c r="H20" s="4">
+        <v>13.8</v>
+      </c>
+      <c r="I20" s="4">
+        <v>14.6</v>
+      </c>
+      <c r="J20" s="4">
+        <v>14.2</v>
+      </c>
+      <c r="K20" s="4">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="4">
+        <v>14.3</v>
+      </c>
+      <c r="C21" s="4">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="D21" s="4">
+        <v>13.7</v>
+      </c>
+      <c r="E21" s="4">
+        <v>14.3</v>
+      </c>
+      <c r="F21" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="G21" s="4">
+        <v>14.1</v>
+      </c>
+      <c r="H21" s="4">
+        <v>13.2</v>
+      </c>
+      <c r="I21" s="4">
+        <v>15.5</v>
+      </c>
+      <c r="J21" s="4">
+        <v>15.6</v>
+      </c>
+      <c r="K21" s="4">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="4">
+        <v>12.8</v>
+      </c>
+      <c r="C22" s="4">
+        <v>14.3</v>
+      </c>
+      <c r="D22" s="4">
+        <v>15.2</v>
+      </c>
+      <c r="E22" s="4">
+        <v>12.3</v>
+      </c>
+      <c r="F22" s="4">
+        <v>12.4</v>
+      </c>
+      <c r="G22" s="4">
+        <v>13.7</v>
+      </c>
+      <c r="H22" s="4">
+        <v>13.1</v>
+      </c>
+      <c r="I22" s="4">
+        <v>13.2</v>
+      </c>
+      <c r="J22" s="4">
+        <v>13.6</v>
+      </c>
+      <c r="K22" s="4">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="4">
+        <v>14.1</v>
+      </c>
+      <c r="C23" s="4">
+        <v>16.2</v>
+      </c>
+      <c r="D23" s="4">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E23" s="4">
+        <v>15.1</v>
+      </c>
+      <c r="F23" s="4">
+        <v>15.4</v>
+      </c>
+      <c r="G23" s="4">
+        <v>15.1</v>
+      </c>
+      <c r="H23" s="5">
+        <v>13</v>
+      </c>
+      <c r="I23" s="4">
+        <v>15.3</v>
+      </c>
+      <c r="J23" s="4">
+        <v>14.3</v>
+      </c>
+      <c r="K23" s="4">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="4">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="C24" s="4">
+        <v>16.2</v>
+      </c>
+      <c r="D24" s="4">
+        <v>16.7</v>
+      </c>
+      <c r="E24" s="4">
+        <v>15.5</v>
+      </c>
+      <c r="F24" s="4">
+        <v>14.5</v>
+      </c>
+      <c r="G24" s="4">
+        <v>13.9</v>
+      </c>
+      <c r="H24" s="5">
+        <v>15</v>
+      </c>
+      <c r="I24" s="4">
+        <v>13.9</v>
+      </c>
+      <c r="J24" s="5">
+        <v>15</v>
+      </c>
+      <c r="K24" s="4">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="4">
+        <v>15.7</v>
+      </c>
+      <c r="C25" s="4">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="D25" s="4">
+        <v>15.5</v>
+      </c>
+      <c r="E25" s="4">
+        <v>13.4</v>
+      </c>
+      <c r="F25" s="4">
+        <v>14.6</v>
+      </c>
+      <c r="G25" s="4">
+        <v>13.7</v>
+      </c>
+      <c r="H25" s="4">
+        <v>13.9</v>
+      </c>
+      <c r="I25" s="5">
+        <v>15</v>
+      </c>
+      <c r="J25" s="4">
+        <v>13.3</v>
+      </c>
+      <c r="K25" s="4">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="4">
+        <v>14.7</v>
+      </c>
+      <c r="C26" s="4">
+        <v>14.5</v>
+      </c>
+      <c r="D26" s="4">
+        <v>15.3</v>
+      </c>
+      <c r="E26" s="4">
+        <v>13.2</v>
+      </c>
+      <c r="F26" s="4">
+        <v>14.4</v>
+      </c>
+      <c r="G26" s="4">
+        <v>13.3</v>
+      </c>
+      <c r="H26" s="4">
+        <v>13.6</v>
+      </c>
+      <c r="I26" s="4">
+        <v>14.2</v>
+      </c>
+      <c r="J26" s="4">
+        <v>13.9</v>
+      </c>
+      <c r="K26" s="4">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="4">
+        <v>24.5</v>
+      </c>
+      <c r="C27" s="4">
+        <v>21.4</v>
+      </c>
+      <c r="D27" s="4">
+        <v>21.1</v>
+      </c>
+      <c r="E27" s="4">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="F27" s="4">
+        <v>22.4</v>
+      </c>
+      <c r="G27" s="4">
+        <v>21.8</v>
+      </c>
+      <c r="H27" s="4">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="I27" s="4">
+        <v>22.5</v>
+      </c>
+      <c r="J27" s="4">
+        <v>21.9</v>
+      </c>
+      <c r="K27" s="4">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="4">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="C28" s="4">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="D28" s="4">
+        <v>18.5</v>
+      </c>
+      <c r="E28" s="4">
+        <v>14.9</v>
+      </c>
+      <c r="F28" s="4">
+        <v>15.3</v>
+      </c>
+      <c r="G28" s="4">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="H28" s="4">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="I28" s="4">
+        <v>16.2</v>
+      </c>
+      <c r="J28" s="4">
+        <v>15.6</v>
+      </c>
+      <c r="K28" s="4">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="4">
+        <v>16.2</v>
+      </c>
+      <c r="C29" s="4">
+        <v>14.6</v>
+      </c>
+      <c r="D29" s="4">
+        <v>18.2</v>
+      </c>
+      <c r="E29" s="4">
+        <v>16.3</v>
+      </c>
+      <c r="F29" s="5">
+        <v>17</v>
+      </c>
+      <c r="G29" s="5">
+        <v>16</v>
+      </c>
+      <c r="H29" s="4">
+        <v>15.7</v>
+      </c>
+      <c r="I29" s="4">
+        <v>15.2</v>
+      </c>
+      <c r="J29" s="5">
+        <v>14</v>
+      </c>
+      <c r="K29" s="4">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="4">
+        <v>15.8</v>
+      </c>
+      <c r="C30" s="4">
+        <v>14.6</v>
+      </c>
+      <c r="D30" s="4">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="E30" s="4">
+        <v>12.8</v>
+      </c>
+      <c r="F30" s="4">
+        <v>14.5</v>
+      </c>
+      <c r="G30" s="4">
+        <v>12.1</v>
+      </c>
+      <c r="H30" s="5">
+        <v>12</v>
+      </c>
+      <c r="I30" s="4">
+        <v>11.8</v>
+      </c>
+      <c r="J30" s="4">
+        <v>13.1</v>
+      </c>
+      <c r="K30" s="4">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="C31" s="4">
+        <v>13.1</v>
+      </c>
+      <c r="D31" s="4">
+        <v>12.3</v>
+      </c>
+      <c r="E31" s="5">
+        <v>11</v>
+      </c>
+      <c r="F31" s="5">
+        <v>12</v>
+      </c>
+      <c r="G31" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H31" s="4">
+        <v>10.7</v>
+      </c>
+      <c r="I31" s="4">
+        <v>11.2</v>
+      </c>
+      <c r="J31" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="K31" s="4">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="4">
+        <v>15.8</v>
+      </c>
+      <c r="C32" s="4">
+        <v>17.7</v>
+      </c>
+      <c r="D32" s="4">
+        <v>15.9</v>
+      </c>
+      <c r="E32" s="4">
+        <v>14.6</v>
+      </c>
+      <c r="F32" s="5">
+        <v>14</v>
+      </c>
+      <c r="G32" s="4">
+        <v>14.5</v>
+      </c>
+      <c r="H32" s="5">
+        <v>14</v>
+      </c>
+      <c r="I32" s="4">
+        <v>14.9</v>
+      </c>
+      <c r="J32" s="4">
+        <v>14.4</v>
+      </c>
+      <c r="K32" s="4">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="4">
+        <v>7.7</v>
+      </c>
+      <c r="C33" s="4">
+        <v>12.6</v>
+      </c>
+      <c r="D33" s="4">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E33" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="F33" s="4">
+        <v>7.7</v>
+      </c>
+      <c r="G33" s="4">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="H33" s="4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I33" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="J33" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="K33" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C34" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="D34" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="E34" s="4">
+        <v>10.4</v>
+      </c>
+      <c r="F34" s="4">
+        <v>10.3</v>
+      </c>
+      <c r="G34" s="5">
+        <v>11</v>
+      </c>
+      <c r="H34" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="I34" s="4">
+        <v>11.1</v>
+      </c>
+      <c r="J34" s="4">
+        <v>12.4</v>
+      </c>
+      <c r="K34" s="4">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="C35" s="4">
+        <v>18.2</v>
+      </c>
+      <c r="D35" s="4">
+        <v>14.4</v>
+      </c>
+      <c r="E35" s="4">
+        <v>13.8</v>
+      </c>
+      <c r="F35" s="4">
+        <v>13.6</v>
+      </c>
+      <c r="G35" s="4">
+        <v>14.2</v>
+      </c>
+      <c r="H35" s="4">
+        <v>10.3</v>
+      </c>
+      <c r="I35" s="4">
+        <v>15.4</v>
+      </c>
+      <c r="J35" s="4">
+        <v>14.7</v>
+      </c>
+      <c r="K35" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="4">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="C36" s="4">
+        <v>17.7</v>
+      </c>
+      <c r="D36" s="4">
+        <v>16.7</v>
+      </c>
+      <c r="E36" s="4">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="F36" s="4">
+        <v>14.6</v>
+      </c>
+      <c r="G36" s="4">
+        <v>15.5</v>
+      </c>
+      <c r="H36" s="4">
+        <v>17.7</v>
+      </c>
+      <c r="I36" s="4">
+        <v>15.8</v>
+      </c>
+      <c r="J36" s="4">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="K36" s="4">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="4">
+        <v>18.8</v>
+      </c>
+      <c r="C37" s="4">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="D37" s="4">
+        <v>18.7</v>
+      </c>
+      <c r="E37" s="4">
+        <v>15.8</v>
+      </c>
+      <c r="F37" s="4">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="G37" s="4">
+        <v>18.2</v>
+      </c>
+      <c r="H37" s="4">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="I37" s="4">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J37" s="4">
+        <v>16.7</v>
+      </c>
+      <c r="K37" s="4">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE203A29-A281-904E-9622-D1F1F2698E3B}">
   <dimension ref="A1:AH3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection sqref="A1:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4778,7 +6092,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6169355-46DB-CB4E-A0EB-A972539C19DB}">
   <dimension ref="A1:F16384"/>
   <sheetViews>
